--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Estudios-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social global - escala</t>
+          <t>Apoyo social global - escala (tasa de respuesta: 97,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Estudios-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,72</t>
+          <t>46,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,58</t>
+          <t>45,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,01</t>
+          <t>46,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,26; 47,75</t>
+          <t>45,5; 48,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,7; 45,37</t>
+          <t>42,72; 45,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,66; 46,48</t>
+          <t>45,02; 46,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,82; 45,41</t>
+          <t>43,73; 45,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,25; 46,68</t>
+          <t>45,51; 47,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,75; 45,15</t>
+          <t>43,67; 45,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,71</t>
+          <t>46,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,39</t>
+          <t>46,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,55</t>
+          <t>46,49</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,2; 47,21</t>
+          <t>45,91; 47,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,96; 52,01</t>
+          <t>47,94; 51,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,89; 46,82</t>
+          <t>45,87; 47,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,57; 49,52</t>
+          <t>47,56; 49,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,19; 46,88</t>
+          <t>46,1; 46,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,98; 50,47</t>
+          <t>48,0; 50,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,79</t>
+          <t>48,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>47,49</t>
+          <t>47,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>47,62</t>
+          <t>47,73</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,12; 48,48</t>
+          <t>47,19; 48,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>49,34; 50,62</t>
+          <t>49,35; 50,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,86; 48,04</t>
+          <t>46,74; 48,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,52; 50,52</t>
+          <t>49,39; 50,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,14; 48,06</t>
+          <t>47,23; 48,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,58; 50,41</t>
+          <t>49,61; 50,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,96</t>
+          <t>46,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,54</t>
+          <t>46,69</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,73</t>
+          <t>46,82</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,56; 47,35</t>
+          <t>46,44; 47,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,98; 50,8</t>
+          <t>48,0; 51,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,21; 46,9</t>
+          <t>46,27; 47,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,5; 48,72</t>
+          <t>47,46; 48,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,47; 46,98</t>
+          <t>46,53; 47,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,89; 49,8</t>
+          <t>47,88; 50,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONT-Estudios-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>44,18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>45,61</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>46,8</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>44,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>45,61</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>44,38</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46,63</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>45,94</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>44,61</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>46,63</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>44,3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>46,18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>46,27</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>44,42</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>46,18</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>42,89; 45,41</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44,6; 46,49</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>45,5; 48,08</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>42,72; 45,45</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>44,6; 46,49</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>43,53; 45,2</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>45,89; 47,33</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>45,02; 46,83</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>43,73; 45,4</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>45,89; 47,33</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>43,57; 44,96</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45,51; 46,74</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>45,51; 47,01</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>43,67; 45,07</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>45,51; 46,74</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>47,85</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48,76</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>46,52</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>49,34</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>48,76</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>47,55</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48,87</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>46,45</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>48,19</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>48,87</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>47,7</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48,81</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>46,49</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>48,82</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>48,81</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>47,33; 48,33</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>48,33; 49,12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>45,91; 47,04</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>47,94; 51,61</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>48,33; 49,12</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>47,09; 47,97</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>48,46; 49,3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>45,87; 47,01</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>47,56; 49,47</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>48,46; 49,3</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>47,36; 48,04</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48,53; 49,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>46,1; 46,88</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>48,0; 50,62</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>48,53; 49,11</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>49,74</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48,57</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>48,06</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>50,02</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>48,57</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>49,94</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>49,92</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>47,46</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>50,02</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>49,92</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>49,84</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49,28</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>47,73</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>50,02</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>49,28</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>49,02; 50,39</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47,93; 49,18</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>47,19; 48,85</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>49,35; 50,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>47,93; 49,18</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>49,32; 50,42</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>49,37; 50,39</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>46,74; 48,08</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>49,39; 50,51</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>49,37; 50,39</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>49,41; 50,25</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>48,86; 49,63</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>47,23; 48,23</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>49,61; 50,4</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>48,86; 49,63</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>47,86</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48,24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>46,97</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>48,92</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>48,24</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>47,47</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>48,77</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>46,69</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>47,9</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>48,77</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>47,66</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48,52</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>46,82</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>48,42</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>48,52</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>47,46; 48,25</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47,9; 48,56</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>46,44; 47,35</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>48,0; 51,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>47,9; 48,56</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>47,11; 47,81</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>48,45; 49,05</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>46,27; 47,06</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>47,46; 48,73</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>48,45; 49,05</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>47,41; 47,91</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>48,29; 48,73</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>46,53; 47,11</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>47,88; 50,2</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>48,29; 48,73</t>
         </is>
       </c>
     </row>
